--- a/biology/Botanique/Tribelaceae/Tribelaceae.xlsx
+++ b/biology/Botanique/Tribelaceae/Tribelaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Tribelacées comprend une seule espèce, Tribeles australis. 
 C’est une plante buissonnante non-résineuse, originaire des zones tempérées d’Amérique du Sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Tribeles, qui vient du grec τριβελής / tribelís, « à trois pointes », en référence à la forme des feuilles triacuminées[1], c'est-à-dire munies de 3 pointes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Tribeles, qui vient du grec τριβελής / tribelís, « à trois pointes », en référence à la forme des feuilles triacuminées, c'est-à-dire munies de 3 pointes.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique la situe à la base des Campanulidées (Classification APG#Campanulidées ou Euastéridées II (anglais euasterids II)Euasterids II).
 Le Angiosperm Phylogeny Website et le site GRIN [7 décembre 2006] incluent cette espèce dans la famille des Escalloniacées.
-En classification phylogénétique APG III (2009)[2] cette famille est invalide ; cette espèce est incorporée dans la famille Escalloniaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide ; cette espèce est incorporée dans la famille Escalloniaceae.
 </t>
         </is>
       </c>
